--- a/www/IndicatorsPerCountry/UnitedKingdom_GDPperCapita_TerritorialRef_1946_2012_CCode_826.xlsx
+++ b/www/IndicatorsPerCountry/UnitedKingdom_GDPperCapita_TerritorialRef_1946_2012_CCode_826.xlsx
@@ -726,13 +726,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/UnitedKingdom_GDPperCapita_TerritorialRef_1946_2012_CCode_826.xlsx
+++ b/www/IndicatorsPerCountry/UnitedKingdom_GDPperCapita_TerritorialRef_1946_2012_CCode_826.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="503">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,667 +36,1456 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>925.029804329</t>
-  </si>
-  <si>
-    <t>1513</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1695</t>
-  </si>
-  <si>
-    <t>1816</t>
-  </si>
-  <si>
-    <t>2096.92614181</t>
-  </si>
-  <si>
-    <t>2101.53337832</t>
-  </si>
-  <si>
-    <t>2108.04948658</t>
-  </si>
-  <si>
-    <t>2039.94722199</t>
-  </si>
-  <si>
-    <t>2009.98869695</t>
-  </si>
-  <si>
-    <t>2100.49553498</t>
-  </si>
-  <si>
-    <t>2062.16959716</t>
-  </si>
-  <si>
-    <t>2166.85802672</t>
-  </si>
-  <si>
-    <t>2038.88108655</t>
-  </si>
-  <si>
-    <t>2075.63376056</t>
-  </si>
-  <si>
-    <t>2181.73454798</t>
-  </si>
-  <si>
-    <t>2130.90874681</t>
-  </si>
-  <si>
-    <t>2012.17012304</t>
-  </si>
-  <si>
-    <t>2088.21084731</t>
-  </si>
-  <si>
-    <t>2010.18514697</t>
-  </si>
-  <si>
-    <t>2188.82567437</t>
-  </si>
-  <si>
-    <t>2039.49315388</t>
-  </si>
-  <si>
-    <t>2041.28867943</t>
-  </si>
-  <si>
-    <t>2008.31607479</t>
-  </si>
-  <si>
-    <t>1946.97438482</t>
-  </si>
-  <si>
-    <t>2073.84535281</t>
-  </si>
-  <si>
-    <t>2074.96526258</t>
-  </si>
-  <si>
-    <t>2080.18317619</t>
-  </si>
-  <si>
-    <t>2107.49723802</t>
-  </si>
-  <si>
-    <t>2190.72974783</t>
-  </si>
-  <si>
-    <t>2209.43103346</t>
-  </si>
-  <si>
-    <t>2063.90796898</t>
-  </si>
-  <si>
-    <t>2194.68727252</t>
-  </si>
-  <si>
-    <t>2170.63801796</t>
-  </si>
-  <si>
-    <t>2159.53173933</t>
-  </si>
-  <si>
-    <t>2227.30682927</t>
-  </si>
-  <si>
-    <t>2224.16787586</t>
-  </si>
-  <si>
-    <t>2266.32610726</t>
-  </si>
-  <si>
-    <t>2258.113768</t>
-  </si>
-  <si>
-    <t>2283.28802002</t>
-  </si>
-  <si>
-    <t>2422.14699389</t>
-  </si>
-  <si>
-    <t>2470.17179321</t>
-  </si>
-  <si>
-    <t>2419.71371448</t>
-  </si>
-  <si>
-    <t>2485.58032311</t>
-  </si>
-  <si>
-    <t>2435.12299098</t>
-  </si>
-  <si>
-    <t>2521.01746092</t>
-  </si>
-  <si>
-    <t>2443.11024988</t>
-  </si>
-  <si>
-    <t>2389.36039953</t>
-  </si>
-  <si>
-    <t>2477.80044341</t>
-  </si>
-  <si>
-    <t>2663.35718426</t>
-  </si>
-  <si>
-    <t>2752.12972242</t>
-  </si>
-  <si>
-    <t>2719.34785547</t>
-  </si>
-  <si>
-    <t>2656.43792777</t>
-  </si>
-  <si>
-    <t>2735.72035527</t>
-  </si>
-  <si>
-    <t>2774.20181659</t>
-  </si>
-  <si>
-    <t>2330</t>
-  </si>
-  <si>
-    <t>2450.80719985</t>
-  </si>
-  <si>
-    <t>2480.42546905</t>
-  </si>
-  <si>
-    <t>2555.45361127</t>
-  </si>
-  <si>
-    <t>2602.49216644</t>
-  </si>
-  <si>
-    <t>2570.7838394</t>
-  </si>
-  <si>
-    <t>2729.64472085</t>
-  </si>
-  <si>
-    <t>2757.29085362</t>
-  </si>
-  <si>
-    <t>2742.31229329</t>
-  </si>
-  <si>
-    <t>2790.09071877</t>
-  </si>
-  <si>
-    <t>2830.24093049</t>
-  </si>
-  <si>
-    <t>2884.06344411</t>
-  </si>
-  <si>
-    <t>2880.17414374</t>
-  </si>
-  <si>
-    <t>2880.66149173</t>
-  </si>
-  <si>
-    <t>2935.46008981</t>
-  </si>
-  <si>
-    <t>3000.96380737</t>
-  </si>
-  <si>
-    <t>3023.05789213</t>
-  </si>
-  <si>
-    <t>2968.23891142</t>
-  </si>
-  <si>
-    <t>3036.63478684</t>
-  </si>
-  <si>
-    <t>3030.77713882</t>
-  </si>
-  <si>
-    <t>3190.43401274</t>
-  </si>
-  <si>
-    <t>3331.87501973</t>
-  </si>
-  <si>
-    <t>3319.16540127</t>
-  </si>
-  <si>
-    <t>3364.69764117</t>
-  </si>
-  <si>
-    <t>3386.44410941</t>
-  </si>
-  <si>
-    <t>3433.66838211</t>
-  </si>
-  <si>
-    <t>3430.16042169</t>
-  </si>
-  <si>
-    <t>3425.19704551</t>
-  </si>
-  <si>
-    <t>3402.50064836</t>
-  </si>
-  <si>
-    <t>3352.50746269</t>
-  </si>
-  <si>
-    <t>3477.31993184</t>
-  </si>
-  <si>
-    <t>3568.42679261</t>
-  </si>
-  <si>
-    <t>3643.04033403</t>
-  </si>
-  <si>
-    <t>3643.31029619</t>
-  </si>
-  <si>
-    <t>3621.65401411</t>
-  </si>
-  <si>
-    <t>3573.68079967</t>
-  </si>
-  <si>
-    <t>3600.02412359</t>
-  </si>
-  <si>
-    <t>3713.15071862</t>
-  </si>
-  <si>
-    <t>3849.09780104</t>
-  </si>
-  <si>
-    <t>4023.766421</t>
-  </si>
-  <si>
-    <t>4008.78863545</t>
-  </si>
-  <si>
-    <t>3975.17173695</t>
-  </si>
-  <si>
-    <t>3846.31966224</t>
-  </si>
-  <si>
-    <t>3810.7444531</t>
-  </si>
-  <si>
-    <t>4028.89281762</t>
-  </si>
-  <si>
-    <t>4117.70077255</t>
-  </si>
-  <si>
-    <t>4248.56390313</t>
-  </si>
-  <si>
-    <t>4263.51219146</t>
-  </si>
-  <si>
-    <t>4427.72412768</t>
-  </si>
-  <si>
-    <t>4566.95170824</t>
-  </si>
-  <si>
-    <t>4491.81421455</t>
-  </si>
-  <si>
-    <t>4450.39756368</t>
-  </si>
-  <si>
-    <t>4525.28088225</t>
-  </si>
-  <si>
-    <t>4439.61629503</t>
-  </si>
-  <si>
-    <t>4427.94395813</t>
-  </si>
-  <si>
-    <t>4520.47579163</t>
-  </si>
-  <si>
-    <t>4631.0853532</t>
-  </si>
-  <si>
-    <t>4678.57873197</t>
-  </si>
-  <si>
-    <t>4449.19164174</t>
-  </si>
-  <si>
-    <t>4510.52318059</t>
-  </si>
-  <si>
-    <t>4610.78003384</t>
-  </si>
-  <si>
-    <t>4708.89992931</t>
-  </si>
-  <si>
-    <t>4761.74732532</t>
-  </si>
-  <si>
-    <t>4920.54590462</t>
-  </si>
-  <si>
-    <t>4926.58211905</t>
-  </si>
-  <si>
-    <t>5288.26581787</t>
-  </si>
-  <si>
-    <t>5384.3804016</t>
-  </si>
-  <si>
-    <t>5421.0162183</t>
-  </si>
-  <si>
-    <t>5459.3145679</t>
-  </si>
-  <si>
-    <t>4870.40791679</t>
-  </si>
-  <si>
-    <t>4547.9136285</t>
-  </si>
-  <si>
-    <t>4439.15134326</t>
-  </si>
-  <si>
-    <t>4636.93518435</t>
-  </si>
-  <si>
-    <t>4759.70961521</t>
-  </si>
-  <si>
-    <t>4920.94204609</t>
-  </si>
-  <si>
-    <t>5144.49446282</t>
-  </si>
-  <si>
-    <t>4936.11363636</t>
-  </si>
-  <si>
-    <t>5314.93824495</t>
-  </si>
-  <si>
-    <t>5356.96533415</t>
-  </si>
-  <si>
-    <t>5503.31805045</t>
-  </si>
-  <si>
-    <t>5440.86246893</t>
-  </si>
-  <si>
-    <t>5138.41585276</t>
-  </si>
-  <si>
-    <t>5148.25328585</t>
-  </si>
-  <si>
-    <t>5277.46074807</t>
-  </si>
-  <si>
-    <t>5607.50803583</t>
-  </si>
-  <si>
-    <t>5799.00529146</t>
-  </si>
-  <si>
-    <t>6035.16853933</t>
-  </si>
-  <si>
-    <t>6217.61851593</t>
-  </si>
-  <si>
-    <t>6266.45155177</t>
-  </si>
-  <si>
-    <t>6262.40095018</t>
-  </si>
-  <si>
-    <t>6856.00497657</t>
-  </si>
-  <si>
-    <t>7481.67637299</t>
-  </si>
-  <si>
-    <t>7638.86834711</t>
-  </si>
-  <si>
-    <t>7743.701982</t>
-  </si>
-  <si>
-    <t>7405.39187204</t>
-  </si>
-  <si>
-    <t>7056.13456142</t>
-  </si>
-  <si>
-    <t>6745.34010606</t>
-  </si>
-  <si>
-    <t>6604.41058987</t>
-  </si>
-  <si>
-    <t>6745.63594194</t>
-  </si>
-  <si>
-    <t>6955.69335347</t>
-  </si>
-  <si>
-    <t>6939.37399007</t>
-  </si>
-  <si>
-    <t>7123.36448598</t>
-  </si>
-  <si>
-    <t>7090.71980964</t>
-  </si>
-  <si>
-    <t>7345.79882592</t>
-  </si>
-  <si>
-    <t>7619.20614597</t>
-  </si>
-  <si>
-    <t>7868.13488792</t>
-  </si>
-  <si>
-    <t>7928.74726477</t>
-  </si>
-  <si>
-    <t>8017.01341629</t>
-  </si>
-  <si>
-    <t>7965.80964919</t>
-  </si>
-  <si>
-    <t>8239.79906074</t>
-  </si>
-  <si>
-    <t>8645.23027572</t>
-  </si>
-  <si>
-    <t>8856.66672979</t>
-  </si>
-  <si>
-    <t>8865.38317196</t>
-  </si>
-  <si>
-    <t>9149.18414918</t>
-  </si>
-  <si>
-    <t>9567.96503121</t>
-  </si>
-  <si>
-    <t>9751.53633855</t>
-  </si>
-  <si>
-    <t>9885.31010376</t>
-  </si>
-  <si>
-    <t>10048.8909915</t>
-  </si>
-  <si>
-    <t>10409.9503749</t>
-  </si>
-  <si>
-    <t>10551.6849678</t>
-  </si>
-  <si>
-    <t>10767.4719586</t>
-  </si>
-  <si>
-    <t>10941.474234</t>
-  </si>
-  <si>
-    <t>11293.924642</t>
-  </si>
-  <si>
-    <t>12025.2801993</t>
-  </si>
-  <si>
-    <t>11858.903671</t>
-  </si>
-  <si>
-    <t>11847.0870764</t>
-  </si>
-  <si>
-    <t>12114.9521403</t>
-  </si>
-  <si>
-    <t>12383.6130939</t>
-  </si>
-  <si>
-    <t>12827.8348496</t>
-  </si>
-  <si>
-    <t>13167.2832041</t>
-  </si>
-  <si>
-    <t>12931.491281</t>
-  </si>
-  <si>
-    <t>12747.4263025</t>
-  </si>
-  <si>
-    <t>12954.6474011</t>
-  </si>
-  <si>
-    <t>13404.4668337</t>
-  </si>
-  <si>
-    <t>13720.057239</t>
-  </si>
-  <si>
-    <t>14164.5461058</t>
-  </si>
-  <si>
-    <t>14741.8157463</t>
-  </si>
-  <si>
-    <t>15393.4373926</t>
-  </si>
-  <si>
-    <t>16109.9964253</t>
-  </si>
-  <si>
-    <t>16413.722921</t>
-  </si>
-  <si>
-    <t>16429.9115845</t>
-  </si>
-  <si>
-    <t>16155.2922796</t>
-  </si>
-  <si>
-    <t>16133.494699</t>
-  </si>
-  <si>
-    <t>16458.2961596</t>
-  </si>
-  <si>
-    <t>17117.9416872</t>
-  </si>
-  <si>
-    <t>17585.5273963</t>
-  </si>
-  <si>
-    <t>18044.0031834</t>
-  </si>
-  <si>
-    <t>19115.0724621</t>
-  </si>
-  <si>
-    <t>19724.0854131</t>
-  </si>
-  <si>
-    <t>20269.4815426</t>
-  </si>
-  <si>
-    <t>21045.7200198</t>
-  </si>
-  <si>
-    <t>21567.3540291</t>
-  </si>
-  <si>
-    <t>22008.0062311</t>
-  </si>
-  <si>
-    <t>22762.765049</t>
-  </si>
-  <si>
-    <t>23306.559581</t>
-  </si>
-  <si>
-    <t>23810.4316744</t>
-  </si>
-  <si>
-    <t>24285.2826501</t>
-  </si>
-  <si>
-    <t>25002.1190997</t>
-  </si>
-  <si>
-    <t>24602.1336347</t>
-  </si>
-  <si>
-    <t>23489.3550127</t>
-  </si>
-  <si>
-    <t>23777.1557577</t>
+    <t>1697</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1689</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>1768</t>
+  </si>
+  <si>
+    <t>1799</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1657</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1659</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>1678</t>
+  </si>
+  <si>
+    <t>1654</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1778</t>
+  </si>
+  <si>
+    <t>1762</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1895</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>1675</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>1692</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>1569</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>1671</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1660</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>1681</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>2135</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>2169</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>2386</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2595</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>2616</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2392</t>
+  </si>
+  <si>
+    <t>2361</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2613</t>
+  </si>
+  <si>
+    <t>2526</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2485</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2257</t>
+  </si>
+  <si>
+    <t>2157</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>2294</t>
+  </si>
+  <si>
+    <t>2367</t>
+  </si>
+  <si>
+    <t>2483</t>
+  </si>
+  <si>
+    <t>2606</t>
+  </si>
+  <si>
+    <t>2542</t>
+  </si>
+  <si>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>2611</t>
+  </si>
+  <si>
+    <t>2563</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>2585</t>
+  </si>
+  <si>
+    <t>2455</t>
+  </si>
+  <si>
+    <t>2554</t>
+  </si>
+  <si>
+    <t>2452</t>
+  </si>
+  <si>
+    <t>2538</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>2699</t>
+  </si>
+  <si>
+    <t>2662</t>
+  </si>
+  <si>
+    <t>2576</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>2619</t>
+  </si>
+  <si>
+    <t>2584</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>2621</t>
+  </si>
+  <si>
+    <t>2565</t>
+  </si>
+  <si>
+    <t>2577</t>
+  </si>
+  <si>
+    <t>2641</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>2681</t>
+  </si>
+  <si>
+    <t>2702</t>
+  </si>
+  <si>
+    <t>2627</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>2743</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>2643</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>2914</t>
+  </si>
+  <si>
+    <t>2898</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>2879</t>
+  </si>
+  <si>
+    <t>2891</t>
+  </si>
+  <si>
+    <t>2911</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>2952</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>2890</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>2895</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>2966</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>3048</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>2981</t>
+  </si>
+  <si>
+    <t>2861</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>3072</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3134</t>
+  </si>
+  <si>
+    <t>3051</t>
+  </si>
+  <si>
+    <t>2925</t>
+  </si>
+  <si>
+    <t>3207</t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>3167</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>3343</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>3360</t>
+  </si>
+  <si>
+    <t>3252</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>3347</t>
+  </si>
+  <si>
+    <t>3287</t>
+  </si>
+  <si>
+    <t>3454</t>
+  </si>
+  <si>
+    <t>3250</t>
+  </si>
+  <si>
+    <t>3309</t>
+  </si>
+  <si>
+    <t>3478</t>
+  </si>
+  <si>
+    <t>3397</t>
+  </si>
+  <si>
+    <t>3328</t>
+  </si>
+  <si>
+    <t>3489</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>3103</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>3315</t>
+  </si>
+  <si>
+    <t>3359</t>
+  </si>
+  <si>
+    <t>3492</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>3290</t>
+  </si>
+  <si>
+    <t>3499</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>3550</t>
+  </si>
+  <si>
+    <t>3545</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>3599</t>
+  </si>
+  <si>
+    <t>3639</t>
+  </si>
+  <si>
+    <t>3861</t>
+  </si>
+  <si>
+    <t>3937</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>3963</t>
+  </si>
+  <si>
+    <t>3881</t>
+  </si>
+  <si>
+    <t>4018</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>3808</t>
+  </si>
+  <si>
+    <t>3950</t>
+  </si>
+  <si>
+    <t>4245</t>
+  </si>
+  <si>
+    <t>4387</t>
+  </si>
+  <si>
+    <t>4334</t>
+  </si>
+  <si>
+    <t>4234</t>
+  </si>
+  <si>
+    <t>4361</t>
+  </si>
+  <si>
+    <t>4422</t>
+  </si>
+  <si>
+    <t>4332</t>
+  </si>
+  <si>
+    <t>4477</t>
+  </si>
+  <si>
+    <t>4626</t>
+  </si>
+  <si>
+    <t>4734</t>
+  </si>
+  <si>
+    <t>4909</t>
+  </si>
+  <si>
+    <t>4748</t>
+  </si>
+  <si>
+    <t>5013</t>
+  </si>
+  <si>
+    <t>5019</t>
+  </si>
+  <si>
+    <t>4879</t>
+  </si>
+  <si>
+    <t>5031</t>
+  </si>
+  <si>
+    <t>5086</t>
+  </si>
+  <si>
+    <t>5024</t>
+  </si>
+  <si>
+    <t>4764</t>
+  </si>
+  <si>
+    <t>5165</t>
+  </si>
+  <si>
+    <t>5255</t>
+  </si>
+  <si>
+    <t>5333</t>
+  </si>
+  <si>
+    <t>5451</t>
+  </si>
+  <si>
+    <t>5424</t>
+  </si>
+  <si>
+    <t>5636</t>
+  </si>
+  <si>
+    <t>5635</t>
+  </si>
+  <si>
+    <t>5829</t>
+  </si>
+  <si>
+    <t>5797</t>
+  </si>
+  <si>
+    <t>5769</t>
+  </si>
+  <si>
+    <t>5842</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>5950</t>
+  </si>
+  <si>
+    <t>5938</t>
+  </si>
+  <si>
+    <t>5923</t>
+  </si>
+  <si>
+    <t>5879</t>
+  </si>
+  <si>
+    <t>5786</t>
+  </si>
+  <si>
+    <t>5997</t>
+  </si>
+  <si>
+    <t>6146</t>
+  </si>
+  <si>
+    <t>6269</t>
+  </si>
+  <si>
+    <t>6264</t>
+  </si>
+  <si>
+    <t>6220</t>
+  </si>
+  <si>
+    <t>6132</t>
+  </si>
+  <si>
+    <t>6170</t>
+  </si>
+  <si>
+    <t>6358</t>
+  </si>
+  <si>
+    <t>6585</t>
+  </si>
+  <si>
+    <t>6876</t>
+  </si>
+  <si>
+    <t>6845</t>
+  </si>
+  <si>
+    <t>6781</t>
+  </si>
+  <si>
+    <t>6553</t>
+  </si>
+  <si>
+    <t>6486</t>
+  </si>
+  <si>
+    <t>6851</t>
+  </si>
+  <si>
+    <t>6996</t>
+  </si>
+  <si>
+    <t>7211</t>
+  </si>
+  <si>
+    <t>7229</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>7729</t>
+  </si>
+  <si>
+    <t>7594</t>
+  </si>
+  <si>
+    <t>7516</t>
+  </si>
+  <si>
+    <t>7635</t>
+  </si>
+  <si>
+    <t>7482</t>
+  </si>
+  <si>
+    <t>7455</t>
+  </si>
+  <si>
+    <t>7603</t>
+  </si>
+  <si>
+    <t>7782</t>
+  </si>
+  <si>
+    <t>7855</t>
+  </si>
+  <si>
+    <t>7461</t>
+  </si>
+  <si>
+    <t>7557</t>
+  </si>
+  <si>
+    <t>7718</t>
+  </si>
+  <si>
+    <t>7874</t>
+  </si>
+  <si>
+    <t>7954</t>
+  </si>
+  <si>
+    <t>8212</t>
+  </si>
+  <si>
+    <t>8131</t>
+  </si>
+  <si>
+    <t>8639</t>
+  </si>
+  <si>
+    <t>8702</t>
+  </si>
+  <si>
+    <t>8665</t>
+  </si>
+  <si>
+    <t>8630</t>
+  </si>
+  <si>
+    <t>7605</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>6792</t>
+  </si>
+  <si>
+    <t>7391</t>
+  </si>
+  <si>
+    <t>7587</t>
+  </si>
+  <si>
+    <t>7844</t>
+  </si>
+  <si>
+    <t>8199</t>
+  </si>
+  <si>
+    <t>7868</t>
+  </si>
+  <si>
+    <t>8472</t>
+  </si>
+  <si>
+    <t>8539</t>
+  </si>
+  <si>
+    <t>8772</t>
+  </si>
+  <si>
+    <t>8673</t>
+  </si>
+  <si>
+    <t>8190</t>
+  </si>
+  <si>
+    <t>8206</t>
+  </si>
+  <si>
+    <t>8411</t>
+  </si>
+  <si>
+    <t>8939</t>
+  </si>
+  <si>
+    <t>9244</t>
+  </si>
+  <si>
+    <t>9620</t>
+  </si>
+  <si>
+    <t>9911</t>
+  </si>
+  <si>
+    <t>9988</t>
+  </si>
+  <si>
+    <t>9982</t>
+  </si>
+  <si>
+    <t>10928</t>
+  </si>
+  <si>
+    <t>11926</t>
+  </si>
+  <si>
+    <t>12176</t>
+  </si>
+  <si>
+    <t>12344</t>
+  </si>
+  <si>
+    <t>11803</t>
+  </si>
+  <si>
+    <t>11247</t>
+  </si>
+  <si>
+    <t>10751</t>
+  </si>
+  <si>
+    <t>10527</t>
+  </si>
+  <si>
+    <t>10753</t>
+  </si>
+  <si>
+    <t>11088</t>
+  </si>
+  <si>
+    <t>11061</t>
+  </si>
+  <si>
+    <t>11354</t>
+  </si>
+  <si>
+    <t>11303</t>
+  </si>
+  <si>
+    <t>11709</t>
+  </si>
+  <si>
+    <t>12145</t>
+  </si>
+  <si>
+    <t>12541</t>
+  </si>
+  <si>
+    <t>12639</t>
+  </si>
+  <si>
+    <t>12779</t>
+  </si>
+  <si>
+    <t>12698</t>
+  </si>
+  <si>
+    <t>13134</t>
+  </si>
+  <si>
+    <t>13780</t>
+  </si>
+  <si>
+    <t>14118</t>
+  </si>
+  <si>
+    <t>14131</t>
+  </si>
+  <si>
+    <t>14583</t>
+  </si>
+  <si>
+    <t>15251</t>
+  </si>
+  <si>
+    <t>15545</t>
+  </si>
+  <si>
+    <t>15757</t>
+  </si>
+  <si>
+    <t>16018</t>
+  </si>
+  <si>
+    <t>16593</t>
+  </si>
+  <si>
+    <t>16820</t>
+  </si>
+  <si>
+    <t>17162</t>
+  </si>
+  <si>
+    <t>17440</t>
+  </si>
+  <si>
+    <t>18002</t>
+  </si>
+  <si>
+    <t>19168</t>
+  </si>
+  <si>
+    <t>18903</t>
+  </si>
+  <si>
+    <t>18884</t>
+  </si>
+  <si>
+    <t>19311</t>
+  </si>
+  <si>
+    <t>19740</t>
+  </si>
+  <si>
+    <t>20448</t>
+  </si>
+  <si>
+    <t>20988</t>
+  </si>
+  <si>
+    <t>20612</t>
+  </si>
+  <si>
+    <t>20319</t>
+  </si>
+  <si>
+    <t>20650</t>
+  </si>
+  <si>
+    <t>21366</t>
+  </si>
+  <si>
+    <t>21869</t>
+  </si>
+  <si>
+    <t>22579</t>
+  </si>
+  <si>
+    <t>23498</t>
+  </si>
+  <si>
+    <t>24536</t>
+  </si>
+  <si>
+    <t>25679</t>
+  </si>
+  <si>
+    <t>26164</t>
+  </si>
+  <si>
+    <t>26189</t>
+  </si>
+  <si>
+    <t>25792.0127791084</t>
+  </si>
+  <si>
+    <t>25790.1846879957</t>
+  </si>
+  <si>
+    <t>26349.3419658875</t>
+  </si>
+  <si>
+    <t>27277.5427610258</t>
+  </si>
+  <si>
+    <t>27861.2157825775</t>
+  </si>
+  <si>
+    <t>28472.2482390673</t>
+  </si>
+  <si>
+    <t>29259.7638195274</t>
+  </si>
+  <si>
+    <t>30077.3845199802</t>
+  </si>
+  <si>
+    <t>30932.5362375682</t>
+  </si>
+  <si>
+    <t>31946.0363394414</t>
+  </si>
+  <si>
+    <t>32660.4413700224</t>
+  </si>
+  <si>
+    <t>33271.3025477883</t>
+  </si>
+  <si>
+    <t>34232.4266600062</t>
+  </si>
+  <si>
+    <t>34865.7826780862</t>
+  </si>
+  <si>
+    <t>35623.6255859275</t>
+  </si>
+  <si>
+    <t>36214.0687946763</t>
+  </si>
+  <si>
+    <t>36816.6770751283</t>
+  </si>
+  <si>
+    <t>36264.7905577883</t>
+  </si>
+  <si>
+    <t>34402.3579787811</t>
+  </si>
+  <si>
+    <t>34754.472260544</t>
+  </si>
+  <si>
+    <t>34971</t>
+  </si>
+  <si>
+    <t>35185</t>
+  </si>
+  <si>
+    <t>35618</t>
+  </si>
+  <si>
+    <t>36436</t>
+  </si>
+  <si>
+    <t>36941</t>
+  </si>
+  <si>
+    <t>37334</t>
   </si>
   <si>
     <t>Description</t>
@@ -848,7 +1637,7 @@
         <v>1502.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -865,7 +1654,7 @@
         <v>1503.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -882,7 +1671,7 @@
         <v>1504.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -899,7 +1688,7 @@
         <v>1505.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -916,7 +1705,7 @@
         <v>1506.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +1722,7 @@
         <v>1507.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +1739,7 @@
         <v>1508.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -967,7 +1756,7 @@
         <v>1509.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -984,7 +1773,7 @@
         <v>1510.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1001,7 +1790,7 @@
         <v>1511.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1018,7 +1807,7 @@
         <v>1512.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1035,7 +1824,7 @@
         <v>1513.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1052,7 +1841,7 @@
         <v>1514.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1069,7 +1858,7 @@
         <v>1515.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1086,7 +1875,7 @@
         <v>1516.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1103,7 +1892,7 @@
         <v>1517.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1120,7 +1909,7 @@
         <v>1518.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -1137,7 +1926,7 @@
         <v>1519.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1154,7 +1943,7 @@
         <v>1520.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1171,7 +1960,7 @@
         <v>1521.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1188,7 +1977,7 @@
         <v>1522.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1205,7 +1994,7 @@
         <v>1523.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1222,7 +2011,7 @@
         <v>1524.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1239,7 +2028,7 @@
         <v>1525.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1256,7 +2045,7 @@
         <v>1526.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1273,7 +2062,7 @@
         <v>1527.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1290,7 +2079,7 @@
         <v>1528.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +2096,7 @@
         <v>1529.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1324,7 +2113,7 @@
         <v>1530.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1341,7 +2130,7 @@
         <v>1531.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1358,7 +2147,7 @@
         <v>1532.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -1375,7 +2164,7 @@
         <v>1533.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +2181,7 @@
         <v>1534.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -1409,7 +2198,7 @@
         <v>1535.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -1426,7 +2215,7 @@
         <v>1536.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -1443,7 +2232,7 @@
         <v>1537.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1460,7 +2249,7 @@
         <v>1538.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -1477,7 +2266,7 @@
         <v>1539.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -1494,7 +2283,7 @@
         <v>1540.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -1511,7 +2300,7 @@
         <v>1541.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -1528,7 +2317,7 @@
         <v>1542.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -1545,7 +2334,7 @@
         <v>1543.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -1562,7 +2351,7 @@
         <v>1544.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -1579,7 +2368,7 @@
         <v>1545.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -1596,7 +2385,7 @@
         <v>1546.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -1613,7 +2402,7 @@
         <v>1547.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -1630,7 +2419,7 @@
         <v>1548.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -1647,7 +2436,7 @@
         <v>1549.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
@@ -1664,7 +2453,7 @@
         <v>1550.0</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -1681,7 +2470,7 @@
         <v>1551.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -1698,7 +2487,7 @@
         <v>1552.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
@@ -1715,7 +2504,7 @@
         <v>1553.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
@@ -1732,7 +2521,7 @@
         <v>1554.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
@@ -1749,7 +2538,7 @@
         <v>1555.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -1766,7 +2555,7 @@
         <v>1556.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1783,7 +2572,7 @@
         <v>1557.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -1800,7 +2589,7 @@
         <v>1558.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +2606,7 @@
         <v>1559.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
@@ -1834,7 +2623,7 @@
         <v>1560.0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -1851,7 +2640,7 @@
         <v>1561.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
@@ -1868,7 +2657,7 @@
         <v>1562.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -1885,7 +2674,7 @@
         <v>1563.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -1902,7 +2691,7 @@
         <v>1564.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67">
@@ -1919,7 +2708,7 @@
         <v>1565.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +2725,7 @@
         <v>1566.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -1953,7 +2742,7 @@
         <v>1567.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70">
@@ -1970,7 +2759,7 @@
         <v>1568.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71">
@@ -1987,7 +2776,7 @@
         <v>1569.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72">
@@ -2004,7 +2793,7 @@
         <v>1570.0</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73">
@@ -2021,7 +2810,7 @@
         <v>1571.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
@@ -2038,7 +2827,7 @@
         <v>1572.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
@@ -2055,7 +2844,7 @@
         <v>1573.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
@@ -2072,7 +2861,7 @@
         <v>1574.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -2089,7 +2878,7 @@
         <v>1575.0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78">
@@ -2106,7 +2895,7 @@
         <v>1576.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
@@ -2123,7 +2912,7 @@
         <v>1577.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
@@ -2140,7 +2929,7 @@
         <v>1578.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
@@ -2157,7 +2946,7 @@
         <v>1579.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -2174,7 +2963,7 @@
         <v>1580.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83">
@@ -2191,7 +2980,7 @@
         <v>1581.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -2208,7 +2997,7 @@
         <v>1582.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
@@ -2225,7 +3014,7 @@
         <v>1583.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
@@ -2242,7 +3031,7 @@
         <v>1584.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
@@ -2259,7 +3048,7 @@
         <v>1585.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -2276,7 +3065,7 @@
         <v>1586.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
@@ -2293,7 +3082,7 @@
         <v>1587.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
@@ -2310,7 +3099,7 @@
         <v>1588.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
@@ -2327,7 +3116,7 @@
         <v>1589.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
@@ -2344,7 +3133,7 @@
         <v>1590.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93">
@@ -2361,7 +3150,7 @@
         <v>1591.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
@@ -2378,7 +3167,7 @@
         <v>1592.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95">
@@ -2395,7 +3184,7 @@
         <v>1593.0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
@@ -2412,7 +3201,7 @@
         <v>1594.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97">
@@ -2429,7 +3218,7 @@
         <v>1595.0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
@@ -2446,7 +3235,7 @@
         <v>1596.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99">
@@ -2463,7 +3252,7 @@
         <v>1597.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100">
@@ -2480,7 +3269,7 @@
         <v>1598.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101">
@@ -2497,7 +3286,7 @@
         <v>1599.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
@@ -2514,7 +3303,7 @@
         <v>1600.0</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
@@ -2531,7 +3320,7 @@
         <v>1601.0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
@@ -2548,7 +3337,7 @@
         <v>1602.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +3354,7 @@
         <v>1603.0</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
@@ -2582,7 +3371,7 @@
         <v>1604.0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
@@ -2599,7 +3388,7 @@
         <v>1605.0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
@@ -2616,7 +3405,7 @@
         <v>1606.0</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
@@ -2633,7 +3422,7 @@
         <v>1607.0</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110">
@@ -2650,7 +3439,7 @@
         <v>1608.0</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
@@ -2667,7 +3456,7 @@
         <v>1609.0</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
@@ -2684,7 +3473,7 @@
         <v>1610.0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
@@ -2701,7 +3490,7 @@
         <v>1611.0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -2718,7 +3507,7 @@
         <v>1612.0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115">
@@ -2735,7 +3524,7 @@
         <v>1613.0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +3541,7 @@
         <v>1614.0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117">
@@ -2769,7 +3558,7 @@
         <v>1615.0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
@@ -2786,7 +3575,7 @@
         <v>1616.0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119">
@@ -2803,7 +3592,7 @@
         <v>1617.0</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120">
@@ -2820,7 +3609,7 @@
         <v>1618.0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -2837,7 +3626,7 @@
         <v>1619.0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
@@ -2854,7 +3643,7 @@
         <v>1620.0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123">
@@ -2871,7 +3660,7 @@
         <v>1621.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
@@ -2888,7 +3677,7 @@
         <v>1622.0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
@@ -2905,7 +3694,7 @@
         <v>1623.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126">
@@ -2922,7 +3711,7 @@
         <v>1624.0</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127">
@@ -2939,7 +3728,7 @@
         <v>1625.0</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128">
@@ -2956,7 +3745,7 @@
         <v>1626.0</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
@@ -2973,7 +3762,7 @@
         <v>1627.0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
@@ -2990,7 +3779,7 @@
         <v>1628.0</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131">
@@ -3007,7 +3796,7 @@
         <v>1629.0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132">
@@ -3024,7 +3813,7 @@
         <v>1630.0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
@@ -3041,7 +3830,7 @@
         <v>1631.0</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134">
@@ -3058,7 +3847,7 @@
         <v>1632.0</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135">
@@ -3075,7 +3864,7 @@
         <v>1633.0</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
@@ -3092,7 +3881,7 @@
         <v>1634.0</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
@@ -3109,7 +3898,7 @@
         <v>1635.0</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138">
@@ -3126,7 +3915,7 @@
         <v>1636.0</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3932,7 @@
         <v>1637.0</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
@@ -3160,7 +3949,7 @@
         <v>1638.0</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
@@ -3177,7 +3966,7 @@
         <v>1639.0</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142">
@@ -3194,7 +3983,7 @@
         <v>1640.0</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
@@ -3211,7 +4000,7 @@
         <v>1641.0</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144">
@@ -3228,7 +4017,7 @@
         <v>1642.0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
@@ -3245,7 +4034,7 @@
         <v>1643.0</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
@@ -3262,7 +4051,7 @@
         <v>1644.0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
@@ -3279,7 +4068,7 @@
         <v>1645.0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
@@ -3296,7 +4085,7 @@
         <v>1646.0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
@@ -3313,7 +4102,7 @@
         <v>1647.0</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150">
@@ -3330,7 +4119,7 @@
         <v>1648.0</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
@@ -3347,7 +4136,7 @@
         <v>1649.0</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
@@ -3364,7 +4153,7 @@
         <v>1650.0</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
@@ -3381,7 +4170,7 @@
         <v>1651.0</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
@@ -3398,7 +4187,7 @@
         <v>1652.0</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155">
@@ -3415,7 +4204,7 @@
         <v>1653.0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156">
@@ -3432,7 +4221,7 @@
         <v>1654.0</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
@@ -3449,7 +4238,7 @@
         <v>1655.0</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
@@ -3466,7 +4255,7 @@
         <v>1656.0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
@@ -3483,7 +4272,7 @@
         <v>1657.0</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160">
@@ -3500,7 +4289,7 @@
         <v>1658.0</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161">
@@ -3517,7 +4306,7 @@
         <v>1659.0</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162">
@@ -3534,7 +4323,7 @@
         <v>1660.0</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163">
@@ -3551,7 +4340,7 @@
         <v>1661.0</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
@@ -3568,7 +4357,7 @@
         <v>1662.0</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
@@ -3585,7 +4374,7 @@
         <v>1663.0</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166">
@@ -3602,7 +4391,7 @@
         <v>1664.0</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
@@ -3619,7 +4408,7 @@
         <v>1665.0</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
@@ -3636,7 +4425,7 @@
         <v>1666.0</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
@@ -3653,7 +4442,7 @@
         <v>1667.0</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170">
@@ -3670,7 +4459,7 @@
         <v>1668.0</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171">
@@ -3687,7 +4476,7 @@
         <v>1669.0</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172">
@@ -3704,7 +4493,7 @@
         <v>1670.0</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173">
@@ -3721,7 +4510,7 @@
         <v>1671.0</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
@@ -3738,7 +4527,7 @@
         <v>1672.0</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175">
@@ -3755,7 +4544,7 @@
         <v>1673.0</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
@@ -3772,7 +4561,7 @@
         <v>1674.0</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
@@ -3789,7 +4578,7 @@
         <v>1675.0</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
@@ -3806,7 +4595,7 @@
         <v>1676.0</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179">
@@ -3823,7 +4612,7 @@
         <v>1677.0</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
@@ -3840,7 +4629,7 @@
         <v>1678.0</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181">
@@ -3857,7 +4646,7 @@
         <v>1679.0</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182">
@@ -3874,7 +4663,7 @@
         <v>1680.0</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183">
@@ -3891,7 +4680,7 @@
         <v>1681.0</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
@@ -3908,7 +4697,7 @@
         <v>1682.0</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
@@ -3925,7 +4714,7 @@
         <v>1683.0</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
@@ -3942,7 +4731,7 @@
         <v>1684.0</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187">
@@ -3959,7 +4748,7 @@
         <v>1685.0</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
@@ -3976,7 +4765,7 @@
         <v>1686.0</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189">
@@ -3993,7 +4782,7 @@
         <v>1687.0</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190">
@@ -4010,7 +4799,7 @@
         <v>1688.0</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191">
@@ -4027,7 +4816,7 @@
         <v>1689.0</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192">
@@ -4044,7 +4833,7 @@
         <v>1690.0</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
@@ -4061,7 +4850,7 @@
         <v>1691.0</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194">
@@ -4078,7 +4867,7 @@
         <v>1692.0</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195">
@@ -4095,7 +4884,7 @@
         <v>1693.0</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196">
@@ -4112,7 +4901,7 @@
         <v>1694.0</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197">
@@ -4129,7 +4918,7 @@
         <v>1695.0</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198">
@@ -4146,7 +4935,7 @@
         <v>1696.0</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199">
@@ -4163,7 +4952,7 @@
         <v>1697.0</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="200">
@@ -4180,7 +4969,7 @@
         <v>1698.0</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="201">
@@ -4197,7 +4986,7 @@
         <v>1699.0</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202">
@@ -4214,7 +5003,7 @@
         <v>1700.0</v>
       </c>
       <c r="E202" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203">
@@ -4231,7 +5020,7 @@
         <v>1701.0</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204">
@@ -4248,7 +5037,7 @@
         <v>1702.0</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205">
@@ -4265,7 +5054,7 @@
         <v>1703.0</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206">
@@ -4282,7 +5071,7 @@
         <v>1704.0</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207">
@@ -4299,7 +5088,7 @@
         <v>1705.0</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208">
@@ -4316,7 +5105,7 @@
         <v>1706.0</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209">
@@ -4333,7 +5122,7 @@
         <v>1707.0</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="210">
@@ -4350,7 +5139,7 @@
         <v>1708.0</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211">
@@ -4367,7 +5156,7 @@
         <v>1709.0</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="212">
@@ -4384,7 +5173,7 @@
         <v>1710.0</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="213">
@@ -4401,7 +5190,7 @@
         <v>1711.0</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="214">
@@ -4418,7 +5207,7 @@
         <v>1712.0</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215">
@@ -4435,7 +5224,7 @@
         <v>1713.0</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216">
@@ -4452,7 +5241,7 @@
         <v>1714.0</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217">
@@ -4469,7 +5258,7 @@
         <v>1715.0</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="218">
@@ -4486,7 +5275,7 @@
         <v>1716.0</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219">
@@ -4503,7 +5292,7 @@
         <v>1717.0</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220">
@@ -4520,7 +5309,7 @@
         <v>1718.0</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221">
@@ -4537,7 +5326,7 @@
         <v>1719.0</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222">
@@ -4554,7 +5343,7 @@
         <v>1720.0</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223">
@@ -4571,7 +5360,7 @@
         <v>1721.0</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224">
@@ -4588,7 +5377,7 @@
         <v>1722.0</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225">
@@ -4605,7 +5394,7 @@
         <v>1723.0</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226">
@@ -4622,7 +5411,7 @@
         <v>1724.0</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227">
@@ -4639,7 +5428,7 @@
         <v>1725.0</v>
       </c>
       <c r="E227" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
     </row>
     <row r="228">
@@ -4656,7 +5445,7 @@
         <v>1726.0</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229">
@@ -4673,7 +5462,7 @@
         <v>1727.0</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230">
@@ -4690,7 +5479,7 @@
         <v>1728.0</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231">
@@ -4707,7 +5496,7 @@
         <v>1729.0</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
     </row>
     <row r="232">
@@ -4724,7 +5513,7 @@
         <v>1730.0</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233">
@@ -4741,7 +5530,7 @@
         <v>1731.0</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234">
@@ -4758,7 +5547,7 @@
         <v>1732.0</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235">
@@ -4775,7 +5564,7 @@
         <v>1733.0</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
     </row>
     <row r="236">
@@ -4792,7 +5581,7 @@
         <v>1734.0</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237">
@@ -4809,7 +5598,7 @@
         <v>1735.0</v>
       </c>
       <c r="E237" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
     </row>
     <row r="238">
@@ -4826,7 +5615,7 @@
         <v>1736.0</v>
       </c>
       <c r="E238" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="239">
@@ -4843,7 +5632,7 @@
         <v>1737.0</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240">
@@ -4860,7 +5649,7 @@
         <v>1738.0</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241">
@@ -4877,7 +5666,7 @@
         <v>1739.0</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242">
@@ -4894,7 +5683,7 @@
         <v>1740.0</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243">
@@ -4911,7 +5700,7 @@
         <v>1741.0</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244">
@@ -4928,7 +5717,7 @@
         <v>1742.0</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="245">
@@ -4945,7 +5734,7 @@
         <v>1743.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="246">
@@ -4962,7 +5751,7 @@
         <v>1744.0</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
     </row>
     <row r="247">
@@ -4979,7 +5768,7 @@
         <v>1745.0</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
     </row>
     <row r="248">
@@ -4996,7 +5785,7 @@
         <v>1746.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="249">
@@ -5013,7 +5802,7 @@
         <v>1747.0</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="250">
@@ -5030,7 +5819,7 @@
         <v>1748.0</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
     </row>
     <row r="251">
@@ -5047,7 +5836,7 @@
         <v>1749.0</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
     </row>
     <row r="252">
@@ -5064,7 +5853,7 @@
         <v>1750.0</v>
       </c>
       <c r="E252" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253">
@@ -5081,7 +5870,7 @@
         <v>1751.0</v>
       </c>
       <c r="E253" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
     </row>
     <row r="254">
@@ -5098,7 +5887,7 @@
         <v>1752.0</v>
       </c>
       <c r="E254" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255">
@@ -5115,7 +5904,7 @@
         <v>1753.0</v>
       </c>
       <c r="E255" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
     </row>
     <row r="256">
@@ -5132,7 +5921,7 @@
         <v>1754.0</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257">
@@ -5149,7 +5938,7 @@
         <v>1755.0</v>
       </c>
       <c r="E257" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258">
@@ -5166,7 +5955,7 @@
         <v>1756.0</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
     </row>
     <row r="259">
@@ -5183,7 +5972,7 @@
         <v>1757.0</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260">
@@ -5200,7 +5989,7 @@
         <v>1758.0</v>
       </c>
       <c r="E260" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261">
@@ -5217,7 +6006,7 @@
         <v>1759.0</v>
       </c>
       <c r="E261" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
     </row>
     <row r="262">
@@ -5234,7 +6023,7 @@
         <v>1760.0</v>
       </c>
       <c r="E262" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="263">
@@ -5251,7 +6040,7 @@
         <v>1761.0</v>
       </c>
       <c r="E263" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="264">
@@ -5268,7 +6057,7 @@
         <v>1762.0</v>
       </c>
       <c r="E264" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265">
@@ -5285,7 +6074,7 @@
         <v>1763.0</v>
       </c>
       <c r="E265" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
     </row>
     <row r="266">
@@ -5302,7 +6091,7 @@
         <v>1764.0</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
     </row>
     <row r="267">
@@ -5319,7 +6108,7 @@
         <v>1765.0</v>
       </c>
       <c r="E267" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268">
@@ -5336,7 +6125,7 @@
         <v>1766.0</v>
       </c>
       <c r="E268" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
     </row>
     <row r="269">
@@ -5353,7 +6142,7 @@
         <v>1767.0</v>
       </c>
       <c r="E269" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
     </row>
     <row r="270">
@@ -5370,7 +6159,7 @@
         <v>1768.0</v>
       </c>
       <c r="E270" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
     </row>
     <row r="271">
@@ -5387,7 +6176,7 @@
         <v>1769.0</v>
       </c>
       <c r="E271" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
     </row>
     <row r="272">
@@ -5404,7 +6193,7 @@
         <v>1770.0</v>
       </c>
       <c r="E272" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
     </row>
     <row r="273">
@@ -5421,7 +6210,7 @@
         <v>1771.0</v>
       </c>
       <c r="E273" t="s">
-        <v>8</v>
+        <v>251</v>
       </c>
     </row>
     <row r="274">
@@ -5438,7 +6227,7 @@
         <v>1772.0</v>
       </c>
       <c r="E274" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
     </row>
     <row r="275">
@@ -5455,7 +6244,7 @@
         <v>1773.0</v>
       </c>
       <c r="E275" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
     </row>
     <row r="276">
@@ -5472,7 +6261,7 @@
         <v>1774.0</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="277">
@@ -5489,7 +6278,7 @@
         <v>1775.0</v>
       </c>
       <c r="E277" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="278">
@@ -5506,7 +6295,7 @@
         <v>1776.0</v>
       </c>
       <c r="E278" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279">
@@ -5523,7 +6312,7 @@
         <v>1777.0</v>
       </c>
       <c r="E279" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
     </row>
     <row r="280">
@@ -5540,7 +6329,7 @@
         <v>1778.0</v>
       </c>
       <c r="E280" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
     </row>
     <row r="281">
@@ -5557,7 +6346,7 @@
         <v>1779.0</v>
       </c>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
     </row>
     <row r="282">
@@ -5574,7 +6363,7 @@
         <v>1780.0</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
     </row>
     <row r="283">
@@ -5591,7 +6380,7 @@
         <v>1781.0</v>
       </c>
       <c r="E283" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
     </row>
     <row r="284">
@@ -5608,7 +6397,7 @@
         <v>1782.0</v>
       </c>
       <c r="E284" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285">
@@ -5625,7 +6414,7 @@
         <v>1783.0</v>
       </c>
       <c r="E285" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
     </row>
     <row r="286">
@@ -5642,7 +6431,7 @@
         <v>1784.0</v>
       </c>
       <c r="E286" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287">
@@ -5659,7 +6448,7 @@
         <v>1785.0</v>
       </c>
       <c r="E287" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
     </row>
     <row r="288">
@@ -5676,7 +6465,7 @@
         <v>1786.0</v>
       </c>
       <c r="E288" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
     </row>
     <row r="289">
@@ -5693,7 +6482,7 @@
         <v>1787.0</v>
       </c>
       <c r="E289" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
     </row>
     <row r="290">
@@ -5710,7 +6499,7 @@
         <v>1788.0</v>
       </c>
       <c r="E290" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
     </row>
     <row r="291">
@@ -5727,7 +6516,7 @@
         <v>1789.0</v>
       </c>
       <c r="E291" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
     </row>
     <row r="292">
@@ -5744,7 +6533,7 @@
         <v>1790.0</v>
       </c>
       <c r="E292" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293">
@@ -5761,7 +6550,7 @@
         <v>1791.0</v>
       </c>
       <c r="E293" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
     </row>
     <row r="294">
@@ -5778,7 +6567,7 @@
         <v>1792.0</v>
       </c>
       <c r="E294" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
     </row>
     <row r="295">
@@ -5795,7 +6584,7 @@
         <v>1793.0</v>
       </c>
       <c r="E295" t="s">
-        <v>8</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296">
@@ -5812,7 +6601,7 @@
         <v>1794.0</v>
       </c>
       <c r="E296" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
     </row>
     <row r="297">
@@ -5829,7 +6618,7 @@
         <v>1795.0</v>
       </c>
       <c r="E297" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
     </row>
     <row r="298">
@@ -5846,7 +6635,7 @@
         <v>1796.0</v>
       </c>
       <c r="E298" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299">
@@ -5863,7 +6652,7 @@
         <v>1797.0</v>
       </c>
       <c r="E299" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="300">
@@ -5880,7 +6669,7 @@
         <v>1798.0</v>
       </c>
       <c r="E300" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301">
@@ -5897,7 +6686,7 @@
         <v>1799.0</v>
       </c>
       <c r="E301" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
     </row>
     <row r="302">
@@ -5914,7 +6703,7 @@
         <v>1800.0</v>
       </c>
       <c r="E302" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
     </row>
     <row r="303">
@@ -5931,7 +6720,7 @@
         <v>1801.0</v>
       </c>
       <c r="E303" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
     </row>
     <row r="304">
@@ -5948,7 +6737,7 @@
         <v>1802.0</v>
       </c>
       <c r="E304" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
     </row>
     <row r="305">
@@ -5965,7 +6754,7 @@
         <v>1803.0</v>
       </c>
       <c r="E305" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="306">
@@ -5982,7 +6771,7 @@
         <v>1804.0</v>
       </c>
       <c r="E306" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="307">
@@ -5999,7 +6788,7 @@
         <v>1805.0</v>
       </c>
       <c r="E307" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
     </row>
     <row r="308">
@@ -6016,7 +6805,7 @@
         <v>1806.0</v>
       </c>
       <c r="E308" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
     </row>
     <row r="309">
@@ -6033,7 +6822,7 @@
         <v>1807.0</v>
       </c>
       <c r="E309" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
     </row>
     <row r="310">
@@ -6050,7 +6839,7 @@
         <v>1808.0</v>
       </c>
       <c r="E310" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
     </row>
     <row r="311">
@@ -6067,7 +6856,7 @@
         <v>1809.0</v>
       </c>
       <c r="E311" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="312">
@@ -6084,7 +6873,7 @@
         <v>1810.0</v>
       </c>
       <c r="E312" t="s">
-        <v>27</v>
+        <v>287</v>
       </c>
     </row>
     <row r="313">
@@ -6101,7 +6890,7 @@
         <v>1811.0</v>
       </c>
       <c r="E313" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
     </row>
     <row r="314">
@@ -6118,7 +6907,7 @@
         <v>1812.0</v>
       </c>
       <c r="E314" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
     </row>
     <row r="315">
@@ -6135,7 +6924,7 @@
         <v>1813.0</v>
       </c>
       <c r="E315" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
     </row>
     <row r="316">
@@ -6152,7 +6941,7 @@
         <v>1814.0</v>
       </c>
       <c r="E316" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
     </row>
     <row r="317">
@@ -6169,7 +6958,7 @@
         <v>1815.0</v>
       </c>
       <c r="E317" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
     </row>
     <row r="318">
@@ -6186,7 +6975,7 @@
         <v>1816.0</v>
       </c>
       <c r="E318" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
     </row>
     <row r="319">
@@ -6203,7 +6992,7 @@
         <v>1817.0</v>
       </c>
       <c r="E319" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
     </row>
     <row r="320">
@@ -6220,7 +7009,7 @@
         <v>1818.0</v>
       </c>
       <c r="E320" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
     </row>
     <row r="321">
@@ -6237,7 +7026,7 @@
         <v>1819.0</v>
       </c>
       <c r="E321" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="322">
@@ -6254,7 +7043,7 @@
         <v>1820.0</v>
       </c>
       <c r="E322" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
     </row>
     <row r="323">
@@ -6271,7 +7060,7 @@
         <v>1821.0</v>
       </c>
       <c r="E323" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
     </row>
     <row r="324">
@@ -6288,7 +7077,7 @@
         <v>1822.0</v>
       </c>
       <c r="E324" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
     </row>
     <row r="325">
@@ -6305,7 +7094,7 @@
         <v>1823.0</v>
       </c>
       <c r="E325" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
     </row>
     <row r="326">
@@ -6322,7 +7111,7 @@
         <v>1824.0</v>
       </c>
       <c r="E326" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
     </row>
     <row r="327">
@@ -6339,7 +7128,7 @@
         <v>1825.0</v>
       </c>
       <c r="E327" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
     </row>
     <row r="328">
@@ -6356,7 +7145,7 @@
         <v>1826.0</v>
       </c>
       <c r="E328" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
     </row>
     <row r="329">
@@ -6373,7 +7162,7 @@
         <v>1827.0</v>
       </c>
       <c r="E329" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
     </row>
     <row r="330">
@@ -6390,7 +7179,7 @@
         <v>1828.0</v>
       </c>
       <c r="E330" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
     </row>
     <row r="331">
@@ -6407,7 +7196,7 @@
         <v>1829.0</v>
       </c>
       <c r="E331" t="s">
-        <v>46</v>
+        <v>303</v>
       </c>
     </row>
     <row r="332">
@@ -6424,7 +7213,7 @@
         <v>1830.0</v>
       </c>
       <c r="E332" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="333">
@@ -6441,7 +7230,7 @@
         <v>1831.0</v>
       </c>
       <c r="E333" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
     </row>
     <row r="334">
@@ -6458,7 +7247,7 @@
         <v>1832.0</v>
       </c>
       <c r="E334" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
     </row>
     <row r="335">
@@ -6475,7 +7264,7 @@
         <v>1833.0</v>
       </c>
       <c r="E335" t="s">
-        <v>50</v>
+        <v>307</v>
       </c>
     </row>
     <row r="336">
@@ -6492,7 +7281,7 @@
         <v>1834.0</v>
       </c>
       <c r="E336" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
     </row>
     <row r="337">
@@ -6509,7 +7298,7 @@
         <v>1835.0</v>
       </c>
       <c r="E337" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
     </row>
     <row r="338">
@@ -6526,7 +7315,7 @@
         <v>1836.0</v>
       </c>
       <c r="E338" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
     </row>
     <row r="339">
@@ -6543,7 +7332,7 @@
         <v>1837.0</v>
       </c>
       <c r="E339" t="s">
-        <v>54</v>
+        <v>311</v>
       </c>
     </row>
     <row r="340">
@@ -6560,7 +7349,7 @@
         <v>1838.0</v>
       </c>
       <c r="E340" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
     </row>
     <row r="341">
@@ -6577,7 +7366,7 @@
         <v>1839.0</v>
       </c>
       <c r="E341" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
     </row>
     <row r="342">
@@ -6594,7 +7383,7 @@
         <v>1840.0</v>
       </c>
       <c r="E342" t="s">
-        <v>57</v>
+        <v>314</v>
       </c>
     </row>
     <row r="343">
@@ -6611,7 +7400,7 @@
         <v>1841.0</v>
       </c>
       <c r="E343" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
     </row>
     <row r="344">
@@ -6628,7 +7417,7 @@
         <v>1842.0</v>
       </c>
       <c r="E344" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="345">
@@ -6645,7 +7434,7 @@
         <v>1843.0</v>
       </c>
       <c r="E345" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
     </row>
     <row r="346">
@@ -6662,7 +7451,7 @@
         <v>1844.0</v>
       </c>
       <c r="E346" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
     </row>
     <row r="347">
@@ -6679,7 +7468,7 @@
         <v>1845.0</v>
       </c>
       <c r="E347" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
     </row>
     <row r="348">
@@ -6696,7 +7485,7 @@
         <v>1846.0</v>
       </c>
       <c r="E348" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
     </row>
     <row r="349">
@@ -6713,7 +7502,7 @@
         <v>1847.0</v>
       </c>
       <c r="E349" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
     </row>
     <row r="350">
@@ -6730,7 +7519,7 @@
         <v>1848.0</v>
       </c>
       <c r="E350" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
     </row>
     <row r="351">
@@ -6747,7 +7536,7 @@
         <v>1849.0</v>
       </c>
       <c r="E351" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
     </row>
     <row r="352">
@@ -6764,7 +7553,7 @@
         <v>1850.0</v>
       </c>
       <c r="E352" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
     </row>
     <row r="353">
@@ -6781,7 +7570,7 @@
         <v>1851.0</v>
       </c>
       <c r="E353" t="s">
-        <v>68</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354">
@@ -6798,7 +7587,7 @@
         <v>1852.0</v>
       </c>
       <c r="E354" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
     </row>
     <row r="355">
@@ -6815,7 +7604,7 @@
         <v>1853.0</v>
       </c>
       <c r="E355" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
     </row>
     <row r="356">
@@ -6832,7 +7621,7 @@
         <v>1854.0</v>
       </c>
       <c r="E356" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
     </row>
     <row r="357">
@@ -6849,7 +7638,7 @@
         <v>1855.0</v>
       </c>
       <c r="E357" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
     </row>
     <row r="358">
@@ -6866,7 +7655,7 @@
         <v>1856.0</v>
       </c>
       <c r="E358" t="s">
-        <v>73</v>
+        <v>330</v>
       </c>
     </row>
     <row r="359">
@@ -6883,7 +7672,7 @@
         <v>1857.0</v>
       </c>
       <c r="E359" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
     </row>
     <row r="360">
@@ -6900,7 +7689,7 @@
         <v>1858.0</v>
       </c>
       <c r="E360" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
     </row>
     <row r="361">
@@ -6917,7 +7706,7 @@
         <v>1859.0</v>
       </c>
       <c r="E361" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
     </row>
     <row r="362">
@@ -6934,7 +7723,7 @@
         <v>1860.0</v>
       </c>
       <c r="E362" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
     </row>
     <row r="363">
@@ -6951,7 +7740,7 @@
         <v>1861.0</v>
       </c>
       <c r="E363" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
     </row>
     <row r="364">
@@ -6968,7 +7757,7 @@
         <v>1862.0</v>
       </c>
       <c r="E364" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
     </row>
     <row r="365">
@@ -6985,7 +7774,7 @@
         <v>1863.0</v>
       </c>
       <c r="E365" t="s">
-        <v>80</v>
+        <v>337</v>
       </c>
     </row>
     <row r="366">
@@ -7002,7 +7791,7 @@
         <v>1864.0</v>
       </c>
       <c r="E366" t="s">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="367">
@@ -7019,7 +7808,7 @@
         <v>1865.0</v>
       </c>
       <c r="E367" t="s">
-        <v>82</v>
+        <v>339</v>
       </c>
     </row>
     <row r="368">
@@ -7036,7 +7825,7 @@
         <v>1866.0</v>
       </c>
       <c r="E368" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
     </row>
     <row r="369">
@@ -7053,7 +7842,7 @@
         <v>1867.0</v>
       </c>
       <c r="E369" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
     </row>
     <row r="370">
@@ -7070,7 +7859,7 @@
         <v>1868.0</v>
       </c>
       <c r="E370" t="s">
-        <v>85</v>
+        <v>342</v>
       </c>
     </row>
     <row r="371">
@@ -7087,7 +7876,7 @@
         <v>1869.0</v>
       </c>
       <c r="E371" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
     </row>
     <row r="372">
@@ -7104,7 +7893,7 @@
         <v>1870.0</v>
       </c>
       <c r="E372" t="s">
-        <v>87</v>
+        <v>344</v>
       </c>
     </row>
     <row r="373">
@@ -7121,7 +7910,7 @@
         <v>1871.0</v>
       </c>
       <c r="E373" t="s">
-        <v>88</v>
+        <v>345</v>
       </c>
     </row>
     <row r="374">
@@ -7138,7 +7927,7 @@
         <v>1872.0</v>
       </c>
       <c r="E374" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
     </row>
     <row r="375">
@@ -7155,7 +7944,7 @@
         <v>1873.0</v>
       </c>
       <c r="E375" t="s">
-        <v>90</v>
+        <v>347</v>
       </c>
     </row>
     <row r="376">
@@ -7172,7 +7961,7 @@
         <v>1874.0</v>
       </c>
       <c r="E376" t="s">
-        <v>91</v>
+        <v>348</v>
       </c>
     </row>
     <row r="377">
@@ -7189,7 +7978,7 @@
         <v>1875.0</v>
       </c>
       <c r="E377" t="s">
-        <v>92</v>
+        <v>349</v>
       </c>
     </row>
     <row r="378">
@@ -7206,7 +7995,7 @@
         <v>1876.0</v>
       </c>
       <c r="E378" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
     </row>
     <row r="379">
@@ -7223,7 +8012,7 @@
         <v>1877.0</v>
       </c>
       <c r="E379" t="s">
-        <v>94</v>
+        <v>351</v>
       </c>
     </row>
     <row r="380">
@@ -7240,7 +8029,7 @@
         <v>1878.0</v>
       </c>
       <c r="E380" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
     </row>
     <row r="381">
@@ -7257,7 +8046,7 @@
         <v>1879.0</v>
       </c>
       <c r="E381" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
     </row>
     <row r="382">
@@ -7274,7 +8063,7 @@
         <v>1880.0</v>
       </c>
       <c r="E382" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
     </row>
     <row r="383">
@@ -7291,7 +8080,7 @@
         <v>1881.0</v>
       </c>
       <c r="E383" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
     </row>
     <row r="384">
@@ -7308,7 +8097,7 @@
         <v>1882.0</v>
       </c>
       <c r="E384" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
     </row>
     <row r="385">
@@ -7325,7 +8114,7 @@
         <v>1883.0</v>
       </c>
       <c r="E385" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
     </row>
     <row r="386">
@@ -7342,7 +8131,7 @@
         <v>1884.0</v>
       </c>
       <c r="E386" t="s">
-        <v>101</v>
+        <v>358</v>
       </c>
     </row>
     <row r="387">
@@ -7359,7 +8148,7 @@
         <v>1885.0</v>
       </c>
       <c r="E387" t="s">
-        <v>102</v>
+        <v>359</v>
       </c>
     </row>
     <row r="388">
@@ -7376,7 +8165,7 @@
         <v>1886.0</v>
       </c>
       <c r="E388" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
     </row>
     <row r="389">
@@ -7393,7 +8182,7 @@
         <v>1887.0</v>
       </c>
       <c r="E389" t="s">
-        <v>104</v>
+        <v>361</v>
       </c>
     </row>
     <row r="390">
@@ -7410,7 +8199,7 @@
         <v>1888.0</v>
       </c>
       <c r="E390" t="s">
-        <v>105</v>
+        <v>362</v>
       </c>
     </row>
     <row r="391">
@@ -7427,7 +8216,7 @@
         <v>1889.0</v>
       </c>
       <c r="E391" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
     </row>
     <row r="392">
@@ -7444,7 +8233,7 @@
         <v>1890.0</v>
       </c>
       <c r="E392" t="s">
-        <v>107</v>
+        <v>364</v>
       </c>
     </row>
     <row r="393">
@@ -7461,7 +8250,7 @@
         <v>1891.0</v>
       </c>
       <c r="E393" t="s">
-        <v>108</v>
+        <v>365</v>
       </c>
     </row>
     <row r="394">
@@ -7478,7 +8267,7 @@
         <v>1892.0</v>
       </c>
       <c r="E394" t="s">
-        <v>109</v>
+        <v>366</v>
       </c>
     </row>
     <row r="395">
@@ -7495,7 +8284,7 @@
         <v>1893.0</v>
       </c>
       <c r="E395" t="s">
-        <v>110</v>
+        <v>367</v>
       </c>
     </row>
     <row r="396">
@@ -7512,7 +8301,7 @@
         <v>1894.0</v>
       </c>
       <c r="E396" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="397">
@@ -7529,7 +8318,7 @@
         <v>1895.0</v>
       </c>
       <c r="E397" t="s">
-        <v>112</v>
+        <v>369</v>
       </c>
     </row>
     <row r="398">
@@ -7546,7 +8335,7 @@
         <v>1896.0</v>
       </c>
       <c r="E398" t="s">
-        <v>113</v>
+        <v>370</v>
       </c>
     </row>
     <row r="399">
@@ -7563,7 +8352,7 @@
         <v>1897.0</v>
       </c>
       <c r="E399" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="400">
@@ -7580,7 +8369,7 @@
         <v>1898.0</v>
       </c>
       <c r="E400" t="s">
-        <v>115</v>
+        <v>372</v>
       </c>
     </row>
     <row r="401">
@@ -7597,7 +8386,7 @@
         <v>1899.0</v>
       </c>
       <c r="E401" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
     </row>
     <row r="402">
@@ -7614,7 +8403,7 @@
         <v>1900.0</v>
       </c>
       <c r="E402" t="s">
-        <v>117</v>
+        <v>374</v>
       </c>
     </row>
     <row r="403">
@@ -7631,7 +8420,7 @@
         <v>1901.0</v>
       </c>
       <c r="E403" t="s">
-        <v>118</v>
+        <v>375</v>
       </c>
     </row>
     <row r="404">
@@ -7648,7 +8437,7 @@
         <v>1902.0</v>
       </c>
       <c r="E404" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
     </row>
     <row r="405">
@@ -7665,7 +8454,7 @@
         <v>1903.0</v>
       </c>
       <c r="E405" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
     </row>
     <row r="406">
@@ -7682,7 +8471,7 @@
         <v>1904.0</v>
       </c>
       <c r="E406" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
     </row>
     <row r="407">
@@ -7699,7 +8488,7 @@
         <v>1905.0</v>
       </c>
       <c r="E407" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
     </row>
     <row r="408">
@@ -7716,7 +8505,7 @@
         <v>1906.0</v>
       </c>
       <c r="E408" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
     </row>
     <row r="409">
@@ -7733,7 +8522,7 @@
         <v>1907.0</v>
       </c>
       <c r="E409" t="s">
-        <v>124</v>
+        <v>381</v>
       </c>
     </row>
     <row r="410">
@@ -7750,7 +8539,7 @@
         <v>1908.0</v>
       </c>
       <c r="E410" t="s">
-        <v>125</v>
+        <v>382</v>
       </c>
     </row>
     <row r="411">
@@ -7767,7 +8556,7 @@
         <v>1909.0</v>
       </c>
       <c r="E411" t="s">
-        <v>126</v>
+        <v>383</v>
       </c>
     </row>
     <row r="412">
@@ -7784,7 +8573,7 @@
         <v>1910.0</v>
       </c>
       <c r="E412" t="s">
-        <v>127</v>
+        <v>384</v>
       </c>
     </row>
     <row r="413">
@@ -7801,7 +8590,7 @@
         <v>1911.0</v>
       </c>
       <c r="E413" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
     </row>
     <row r="414">
@@ -7818,7 +8607,7 @@
         <v>1912.0</v>
       </c>
       <c r="E414" t="s">
-        <v>129</v>
+        <v>386</v>
       </c>
     </row>
     <row r="415">
@@ -7835,7 +8624,7 @@
         <v>1913.0</v>
       </c>
       <c r="E415" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
     </row>
     <row r="416">
@@ -7852,7 +8641,7 @@
         <v>1914.0</v>
       </c>
       <c r="E416" t="s">
-        <v>131</v>
+        <v>388</v>
       </c>
     </row>
     <row r="417">
@@ -7869,7 +8658,7 @@
         <v>1915.0</v>
       </c>
       <c r="E417" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
     </row>
     <row r="418">
@@ -7886,7 +8675,7 @@
         <v>1916.0</v>
       </c>
       <c r="E418" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
     </row>
     <row r="419">
@@ -7903,7 +8692,7 @@
         <v>1917.0</v>
       </c>
       <c r="E419" t="s">
-        <v>134</v>
+        <v>391</v>
       </c>
     </row>
     <row r="420">
@@ -7920,7 +8709,7 @@
         <v>1918.0</v>
       </c>
       <c r="E420" t="s">
-        <v>135</v>
+        <v>392</v>
       </c>
     </row>
     <row r="421">
@@ -7937,7 +8726,7 @@
         <v>1919.0</v>
       </c>
       <c r="E421" t="s">
-        <v>136</v>
+        <v>393</v>
       </c>
     </row>
     <row r="422">
@@ -7954,7 +8743,7 @@
         <v>1920.0</v>
       </c>
       <c r="E422" t="s">
-        <v>137</v>
+        <v>394</v>
       </c>
     </row>
     <row r="423">
@@ -7971,7 +8760,7 @@
         <v>1921.0</v>
       </c>
       <c r="E423" t="s">
-        <v>138</v>
+        <v>395</v>
       </c>
     </row>
     <row r="424">
@@ -7988,7 +8777,7 @@
         <v>1922.0</v>
       </c>
       <c r="E424" t="s">
-        <v>139</v>
+        <v>396</v>
       </c>
     </row>
     <row r="425">
@@ -8005,7 +8794,7 @@
         <v>1923.0</v>
       </c>
       <c r="E425" t="s">
-        <v>140</v>
+        <v>397</v>
       </c>
     </row>
     <row r="426">
@@ -8022,7 +8811,7 @@
         <v>1924.0</v>
       </c>
       <c r="E426" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
     </row>
     <row r="427">
@@ -8039,7 +8828,7 @@
         <v>1925.0</v>
       </c>
       <c r="E427" t="s">
-        <v>142</v>
+        <v>399</v>
       </c>
     </row>
     <row r="428">
@@ -8056,7 +8845,7 @@
         <v>1926.0</v>
       </c>
       <c r="E428" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
     </row>
     <row r="429">
@@ -8073,7 +8862,7 @@
         <v>1927.0</v>
       </c>
       <c r="E429" t="s">
-        <v>144</v>
+        <v>401</v>
       </c>
     </row>
     <row r="430">
@@ -8090,7 +8879,7 @@
         <v>1928.0</v>
       </c>
       <c r="E430" t="s">
-        <v>145</v>
+        <v>402</v>
       </c>
     </row>
     <row r="431">
@@ -8107,7 +8896,7 @@
         <v>1929.0</v>
       </c>
       <c r="E431" t="s">
-        <v>146</v>
+        <v>403</v>
       </c>
     </row>
     <row r="432">
@@ -8124,7 +8913,7 @@
         <v>1930.0</v>
       </c>
       <c r="E432" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
     </row>
     <row r="433">
@@ -8141,7 +8930,7 @@
         <v>1931.0</v>
       </c>
       <c r="E433" t="s">
-        <v>148</v>
+        <v>405</v>
       </c>
     </row>
     <row r="434">
@@ -8158,7 +8947,7 @@
         <v>1932.0</v>
       </c>
       <c r="E434" t="s">
-        <v>149</v>
+        <v>406</v>
       </c>
     </row>
     <row r="435">
@@ -8175,7 +8964,7 @@
         <v>1933.0</v>
       </c>
       <c r="E435" t="s">
-        <v>150</v>
+        <v>407</v>
       </c>
     </row>
     <row r="436">
@@ -8192,7 +8981,7 @@
         <v>1934.0</v>
       </c>
       <c r="E436" t="s">
-        <v>151</v>
+        <v>408</v>
       </c>
     </row>
     <row r="437">
@@ -8209,7 +8998,7 @@
         <v>1935.0</v>
       </c>
       <c r="E437" t="s">
-        <v>152</v>
+        <v>409</v>
       </c>
     </row>
     <row r="438">
@@ -8226,7 +9015,7 @@
         <v>1936.0</v>
       </c>
       <c r="E438" t="s">
-        <v>153</v>
+        <v>410</v>
       </c>
     </row>
     <row r="439">
@@ -8243,7 +9032,7 @@
         <v>1937.0</v>
       </c>
       <c r="E439" t="s">
-        <v>154</v>
+        <v>411</v>
       </c>
     </row>
     <row r="440">
@@ -8260,7 +9049,7 @@
         <v>1938.0</v>
       </c>
       <c r="E440" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
     </row>
     <row r="441">
@@ -8277,7 +9066,7 @@
         <v>1939.0</v>
       </c>
       <c r="E441" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
     </row>
     <row r="442">
@@ -8294,7 +9083,7 @@
         <v>1940.0</v>
       </c>
       <c r="E442" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
     </row>
     <row r="443">
@@ -8311,7 +9100,7 @@
         <v>1941.0</v>
       </c>
       <c r="E443" t="s">
-        <v>158</v>
+        <v>415</v>
       </c>
     </row>
     <row r="444">
@@ -8328,7 +9117,7 @@
         <v>1942.0</v>
       </c>
       <c r="E444" t="s">
-        <v>159</v>
+        <v>416</v>
       </c>
     </row>
     <row r="445">
@@ -8345,7 +9134,7 @@
         <v>1943.0</v>
       </c>
       <c r="E445" t="s">
-        <v>160</v>
+        <v>417</v>
       </c>
     </row>
     <row r="446">
@@ -8362,7 +9151,7 @@
         <v>1944.0</v>
       </c>
       <c r="E446" t="s">
-        <v>161</v>
+        <v>418</v>
       </c>
     </row>
     <row r="447">
@@ -8379,7 +9168,7 @@
         <v>1945.0</v>
       </c>
       <c r="E447" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
     </row>
     <row r="448">
@@ -8396,7 +9185,7 @@
         <v>1946.0</v>
       </c>
       <c r="E448" t="s">
-        <v>163</v>
+        <v>420</v>
       </c>
     </row>
     <row r="449">
@@ -8413,7 +9202,7 @@
         <v>1947.0</v>
       </c>
       <c r="E449" t="s">
-        <v>164</v>
+        <v>421</v>
       </c>
     </row>
     <row r="450">
@@ -8430,7 +9219,7 @@
         <v>1948.0</v>
       </c>
       <c r="E450" t="s">
-        <v>165</v>
+        <v>422</v>
       </c>
     </row>
     <row r="451">
@@ -8447,7 +9236,7 @@
         <v>1949.0</v>
       </c>
       <c r="E451" t="s">
-        <v>166</v>
+        <v>423</v>
       </c>
     </row>
     <row r="452">
@@ -8464,7 +9253,7 @@
         <v>1950.0</v>
       </c>
       <c r="E452" t="s">
-        <v>167</v>
+        <v>424</v>
       </c>
     </row>
     <row r="453">
@@ -8481,7 +9270,7 @@
         <v>1951.0</v>
       </c>
       <c r="E453" t="s">
-        <v>168</v>
+        <v>425</v>
       </c>
     </row>
     <row r="454">
@@ -8498,7 +9287,7 @@
         <v>1952.0</v>
       </c>
       <c r="E454" t="s">
-        <v>169</v>
+        <v>426</v>
       </c>
     </row>
     <row r="455">
@@ -8515,7 +9304,7 @@
         <v>1953.0</v>
       </c>
       <c r="E455" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
     </row>
     <row r="456">
@@ -8532,7 +9321,7 @@
         <v>1954.0</v>
       </c>
       <c r="E456" t="s">
-        <v>171</v>
+        <v>428</v>
       </c>
     </row>
     <row r="457">
@@ -8549,7 +9338,7 @@
         <v>1955.0</v>
       </c>
       <c r="E457" t="s">
-        <v>172</v>
+        <v>429</v>
       </c>
     </row>
     <row r="458">
@@ -8566,7 +9355,7 @@
         <v>1956.0</v>
       </c>
       <c r="E458" t="s">
-        <v>173</v>
+        <v>430</v>
       </c>
     </row>
     <row r="459">
@@ -8583,7 +9372,7 @@
         <v>1957.0</v>
       </c>
       <c r="E459" t="s">
-        <v>174</v>
+        <v>431</v>
       </c>
     </row>
     <row r="460">
@@ -8600,7 +9389,7 @@
         <v>1958.0</v>
       </c>
       <c r="E460" t="s">
-        <v>175</v>
+        <v>432</v>
       </c>
     </row>
     <row r="461">
@@ -8617,7 +9406,7 @@
         <v>1959.0</v>
       </c>
       <c r="E461" t="s">
-        <v>176</v>
+        <v>433</v>
       </c>
     </row>
     <row r="462">
@@ -8634,7 +9423,7 @@
         <v>1960.0</v>
       </c>
       <c r="E462" t="s">
-        <v>177</v>
+        <v>434</v>
       </c>
     </row>
     <row r="463">
@@ -8651,7 +9440,7 @@
         <v>1961.0</v>
       </c>
       <c r="E463" t="s">
-        <v>178</v>
+        <v>435</v>
       </c>
     </row>
     <row r="464">
@@ -8668,7 +9457,7 @@
         <v>1962.0</v>
       </c>
       <c r="E464" t="s">
-        <v>179</v>
+        <v>436</v>
       </c>
     </row>
     <row r="465">
@@ -8685,7 +9474,7 @@
         <v>1963.0</v>
       </c>
       <c r="E465" t="s">
-        <v>180</v>
+        <v>437</v>
       </c>
     </row>
     <row r="466">
@@ -8702,7 +9491,7 @@
         <v>1964.0</v>
       </c>
       <c r="E466" t="s">
-        <v>181</v>
+        <v>438</v>
       </c>
     </row>
     <row r="467">
@@ -8719,7 +9508,7 @@
         <v>1965.0</v>
       </c>
       <c r="E467" t="s">
-        <v>182</v>
+        <v>439</v>
       </c>
     </row>
     <row r="468">
@@ -8736,7 +9525,7 @@
         <v>1966.0</v>
       </c>
       <c r="E468" t="s">
-        <v>183</v>
+        <v>440</v>
       </c>
     </row>
     <row r="469">
@@ -8753,7 +9542,7 @@
         <v>1967.0</v>
       </c>
       <c r="E469" t="s">
-        <v>184</v>
+        <v>441</v>
       </c>
     </row>
     <row r="470">
@@ -8770,7 +9559,7 @@
         <v>1968.0</v>
       </c>
       <c r="E470" t="s">
-        <v>185</v>
+        <v>442</v>
       </c>
     </row>
     <row r="471">
@@ -8787,7 +9576,7 @@
         <v>1969.0</v>
       </c>
       <c r="E471" t="s">
-        <v>186</v>
+        <v>443</v>
       </c>
     </row>
     <row r="472">
@@ -8804,7 +9593,7 @@
         <v>1970.0</v>
       </c>
       <c r="E472" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
     </row>
     <row r="473">
@@ -8821,7 +9610,7 @@
         <v>1971.0</v>
       </c>
       <c r="E473" t="s">
-        <v>188</v>
+        <v>445</v>
       </c>
     </row>
     <row r="474">
@@ -8838,7 +9627,7 @@
         <v>1972.0</v>
       </c>
       <c r="E474" t="s">
-        <v>189</v>
+        <v>446</v>
       </c>
     </row>
     <row r="475">
@@ -8855,7 +9644,7 @@
         <v>1973.0</v>
       </c>
       <c r="E475" t="s">
-        <v>190</v>
+        <v>447</v>
       </c>
     </row>
     <row r="476">
@@ -8872,7 +9661,7 @@
         <v>1974.0</v>
       </c>
       <c r="E476" t="s">
-        <v>191</v>
+        <v>448</v>
       </c>
     </row>
     <row r="477">
@@ -8889,7 +9678,7 @@
         <v>1975.0</v>
       </c>
       <c r="E477" t="s">
-        <v>192</v>
+        <v>449</v>
       </c>
     </row>
     <row r="478">
@@ -8906,7 +9695,7 @@
         <v>1976.0</v>
       </c>
       <c r="E478" t="s">
-        <v>193</v>
+        <v>450</v>
       </c>
     </row>
     <row r="479">
@@ -8923,7 +9712,7 @@
         <v>1977.0</v>
       </c>
       <c r="E479" t="s">
-        <v>194</v>
+        <v>451</v>
       </c>
     </row>
     <row r="480">
@@ -8940,7 +9729,7 @@
         <v>1978.0</v>
       </c>
       <c r="E480" t="s">
-        <v>195</v>
+        <v>452</v>
       </c>
     </row>
     <row r="481">
@@ -8957,7 +9746,7 @@
         <v>1979.0</v>
       </c>
       <c r="E481" t="s">
-        <v>196</v>
+        <v>453</v>
       </c>
     </row>
     <row r="482">
@@ -8974,7 +9763,7 @@
         <v>1980.0</v>
       </c>
       <c r="E482" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
     </row>
     <row r="483">
@@ -8991,7 +9780,7 @@
         <v>1981.0</v>
       </c>
       <c r="E483" t="s">
-        <v>198</v>
+        <v>455</v>
       </c>
     </row>
     <row r="484">
@@ -9008,7 +9797,7 @@
         <v>1982.0</v>
       </c>
       <c r="E484" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
     </row>
     <row r="485">
@@ -9025,7 +9814,7 @@
         <v>1983.0</v>
       </c>
       <c r="E485" t="s">
-        <v>200</v>
+        <v>457</v>
       </c>
     </row>
     <row r="486">
@@ -9042,7 +9831,7 @@
         <v>1984.0</v>
       </c>
       <c r="E486" t="s">
-        <v>201</v>
+        <v>458</v>
       </c>
     </row>
     <row r="487">
@@ -9059,7 +9848,7 @@
         <v>1985.0</v>
       </c>
       <c r="E487" t="s">
-        <v>202</v>
+        <v>459</v>
       </c>
     </row>
     <row r="488">
@@ -9076,7 +9865,7 @@
         <v>1986.0</v>
       </c>
       <c r="E488" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
     </row>
     <row r="489">
@@ -9093,7 +9882,7 @@
         <v>1987.0</v>
       </c>
       <c r="E489" t="s">
-        <v>204</v>
+        <v>461</v>
       </c>
     </row>
     <row r="490">
@@ -9110,7 +9899,7 @@
         <v>1988.0</v>
       </c>
       <c r="E490" t="s">
-        <v>205</v>
+        <v>462</v>
       </c>
     </row>
     <row r="491">
@@ -9127,7 +9916,7 @@
         <v>1989.0</v>
       </c>
       <c r="E491" t="s">
-        <v>206</v>
+        <v>463</v>
       </c>
     </row>
     <row r="492">
@@ -9144,7 +9933,7 @@
         <v>1990.0</v>
       </c>
       <c r="E492" t="s">
-        <v>207</v>
+        <v>464</v>
       </c>
     </row>
     <row r="493">
@@ -9161,7 +9950,7 @@
         <v>1991.0</v>
       </c>
       <c r="E493" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
     </row>
     <row r="494">
@@ -9178,7 +9967,7 @@
         <v>1992.0</v>
       </c>
       <c r="E494" t="s">
-        <v>209</v>
+        <v>466</v>
       </c>
     </row>
     <row r="495">
@@ -9195,7 +9984,7 @@
         <v>1993.0</v>
       </c>
       <c r="E495" t="s">
-        <v>210</v>
+        <v>467</v>
       </c>
     </row>
     <row r="496">
@@ -9212,7 +10001,7 @@
         <v>1994.0</v>
       </c>
       <c r="E496" t="s">
-        <v>211</v>
+        <v>468</v>
       </c>
     </row>
     <row r="497">
@@ -9229,7 +10018,7 @@
         <v>1995.0</v>
       </c>
       <c r="E497" t="s">
-        <v>212</v>
+        <v>469</v>
       </c>
     </row>
     <row r="498">
@@ -9246,7 +10035,7 @@
         <v>1996.0</v>
       </c>
       <c r="E498" t="s">
-        <v>213</v>
+        <v>470</v>
       </c>
     </row>
     <row r="499">
@@ -9263,7 +10052,7 @@
         <v>1997.0</v>
       </c>
       <c r="E499" t="s">
-        <v>214</v>
+        <v>471</v>
       </c>
     </row>
     <row r="500">
@@ -9280,7 +10069,7 @@
         <v>1998.0</v>
       </c>
       <c r="E500" t="s">
-        <v>215</v>
+        <v>472</v>
       </c>
     </row>
     <row r="501">
@@ -9297,7 +10086,7 @@
         <v>1999.0</v>
       </c>
       <c r="E501" t="s">
-        <v>216</v>
+        <v>473</v>
       </c>
     </row>
     <row r="502">
@@ -9314,7 +10103,7 @@
         <v>2000.0</v>
       </c>
       <c r="E502" t="s">
-        <v>217</v>
+        <v>474</v>
       </c>
     </row>
     <row r="503">
@@ -9331,7 +10120,7 @@
         <v>2001.0</v>
       </c>
       <c r="E503" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
     </row>
     <row r="504">
@@ -9348,7 +10137,7 @@
         <v>2002.0</v>
       </c>
       <c r="E504" t="s">
-        <v>219</v>
+        <v>476</v>
       </c>
     </row>
     <row r="505">
@@ -9365,7 +10154,7 @@
         <v>2003.0</v>
       </c>
       <c r="E505" t="s">
-        <v>220</v>
+        <v>477</v>
       </c>
     </row>
     <row r="506">
@@ -9382,7 +10171,7 @@
         <v>2004.0</v>
       </c>
       <c r="E506" t="s">
-        <v>221</v>
+        <v>478</v>
       </c>
     </row>
     <row r="507">
@@ -9399,7 +10188,7 @@
         <v>2005.0</v>
       </c>
       <c r="E507" t="s">
-        <v>222</v>
+        <v>479</v>
       </c>
     </row>
     <row r="508">
@@ -9416,7 +10205,7 @@
         <v>2006.0</v>
       </c>
       <c r="E508" t="s">
-        <v>223</v>
+        <v>480</v>
       </c>
     </row>
     <row r="509">
@@ -9433,7 +10222,7 @@
         <v>2007.0</v>
       </c>
       <c r="E509" t="s">
-        <v>224</v>
+        <v>481</v>
       </c>
     </row>
     <row r="510">
@@ -9450,7 +10239,7 @@
         <v>2008.0</v>
       </c>
       <c r="E510" t="s">
-        <v>225</v>
+        <v>482</v>
       </c>
     </row>
     <row r="511">
@@ -9467,7 +10256,7 @@
         <v>2009.0</v>
       </c>
       <c r="E511" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
     </row>
     <row r="512">
@@ -9484,7 +10273,109 @@
         <v>2010.0</v>
       </c>
       <c r="E512" t="s">
-        <v>227</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -9502,50 +10393,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>491</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
